--- a/Test input data/Timetable.xlsx
+++ b/Test input data/Timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a98141\Documents\Python Scripts\Rostering\Test input data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambi\OneDrive\Documents\WLLR\Rostering program\Code development\Python code\Test input data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{79416A1B-6589-4AC7-AA4E-9E966A07EC4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40009_{79416A1B-6589-4AC7-AA4E-9E966A07EC4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5A12C591-7893-4632-A883-7B543D14A839}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timetable" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Timetable</t>
   </si>
   <si>
@@ -33,11 +30,14 @@
   <si>
     <t>Yellow</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -872,10 +872,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -884,10 +886,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,7 +897,7 @@
         <v>43141</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,7 +905,7 @@
         <v>43142</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -911,7 +913,7 @@
         <v>43145</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +921,7 @@
         <v>43146</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +929,7 @@
         <v>43148</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,7 +937,7 @@
         <v>43149</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -943,7 +945,7 @@
         <v>43152</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -951,7 +953,7 @@
         <v>43153</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -959,7 +961,7 @@
         <v>43155</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,7 +969,7 @@
         <v>43156</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
